--- a/seg-etv/template pedido de fundos.xlsx
+++ b/seg-etv/template pedido de fundos.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1040103\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14F8C46C-1EEC-4005-A05D-FE5B499320A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08FEFCF8-AB3D-4DD7-9B64-0BCB0DB570FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A063768A-885D-4618-9A90-7F1A34655F13}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,33 +28,217 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Template para pedido de fundos</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+  <si>
+    <t>Moedas</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>Cliente:</t>
+  </si>
+  <si>
+    <t>NIB:</t>
+  </si>
+  <si>
+    <t>Data Pedido:</t>
+  </si>
+  <si>
+    <t>Data Entrega:</t>
+  </si>
+  <si>
+    <t>(nome da pessoa que autoriza o respectivo debito)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nota: As moedas só deverão ser solicitadas em Mangas ou Saquetas indicando as quantidades pretendidas, nas </t>
+  </si>
+  <si>
+    <t>respectivas colunas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> quantidades pretendidas, na respectiva coluna</t>
+  </si>
+  <si>
+    <t>Nota: As Notas só deverão ser solicitadas em Macetes ou Unidades indicando as</t>
+  </si>
+  <si>
+    <t>Quant.         Mangas</t>
+  </si>
+  <si>
+    <t>Quant. 
+Saqueta</t>
+  </si>
+  <si>
+    <t>Quant. Macetes</t>
+  </si>
+  <si>
+    <t>Total
+€uros</t>
+  </si>
+  <si>
+    <t>Total
+ €uros</t>
+  </si>
+  <si>
+    <t>Notas
+€uros</t>
+  </si>
+  <si>
+    <t>Valor €uros por Macete (100 notas)</t>
+  </si>
+  <si>
+    <t>Moedas
+€uros</t>
+  </si>
+  <si>
+    <t>N.º Moedas Saqueta</t>
+  </si>
+  <si>
+    <t>Valor Saqueta
+€uros</t>
+  </si>
+  <si>
+    <t>Valor Manga €uros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nº Moedas  Manga </t>
+  </si>
+  <si>
+    <t>Quant.  Unidade</t>
+  </si>
+  <si>
+    <t>Autorizo o débito na conta acima mencionada pelo valor desta requisição.</t>
+  </si>
+  <si>
+    <t>(DD-MM-AAAA)</t>
+  </si>
+  <si>
+    <t>Observações:</t>
+  </si>
+  <si>
+    <t>……………………………………………………………………………………………………………….</t>
+  </si>
+  <si>
+    <t>…………………………………………………………………………………………………………………………………….</t>
+  </si>
+  <si>
+    <t>Requisição de Fundos</t>
+  </si>
+  <si>
+    <t>(indicar NIB a debitar pela entrega de Fundos)</t>
+  </si>
+  <si>
+    <t>00-00-0000</t>
+  </si>
+  <si>
+    <t>Serve o presente para solicitar a entrega de fundos abaixo mencionados:</t>
+  </si>
+  <si>
+    <t>Assinatura:</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>CTT - Correios de Portugal, SA -Loja ……….</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -65,12 +246,372 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -89,7 +630,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -99,44 +640,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -186,9 +727,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -244,159 +785,891 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A8A880-5B8E-40B8-87C8-EB986640E500}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="0" style="1" hidden="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="43"/>
+    </row>
+    <row r="5" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="45" t="s">
         <v>0</v>
       </c>
-    </row>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="47"/>
+    </row>
+    <row r="15" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="19">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>375</v>
+      </c>
+      <c r="D16" s="27">
+        <f>C16*B16</f>
+        <v>750</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="3">
+        <v>25</v>
+      </c>
+      <c r="G16" s="27">
+        <f>B16*F16</f>
+        <v>50</v>
+      </c>
+      <c r="H16" s="24"/>
+      <c r="I16" s="19">
+        <f>(E16*D16)+(H16*G16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="19">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>375</v>
+      </c>
+      <c r="D17" s="27">
+        <f t="shared" ref="D17:D23" si="0">C17*B17</f>
+        <v>375</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="3">
+        <v>25</v>
+      </c>
+      <c r="G17" s="27">
+        <f t="shared" ref="G17:G23" si="1">B17*F17</f>
+        <v>25</v>
+      </c>
+      <c r="H17" s="24"/>
+      <c r="I17" s="19">
+        <f t="shared" ref="I17:I23" si="2">(E17*D17)+(H17*G17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>600</v>
+      </c>
+      <c r="D18" s="27">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="3">
+        <v>40</v>
+      </c>
+      <c r="G18" s="27">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H18" s="24"/>
+      <c r="I18" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>800</v>
+      </c>
+      <c r="D19" s="27">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="3">
+        <v>40</v>
+      </c>
+      <c r="G19" s="27">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H19" s="24"/>
+      <c r="I19" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>800</v>
+      </c>
+      <c r="D20" s="27">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="3">
+        <v>40</v>
+      </c>
+      <c r="G20" s="27">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H20" s="24"/>
+      <c r="I20" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D21" s="27">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="3">
+        <v>50</v>
+      </c>
+      <c r="G21" s="27">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="H21" s="24"/>
+      <c r="I21" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D22" s="27">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="3">
+        <v>50</v>
+      </c>
+      <c r="G22" s="27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H22" s="24"/>
+      <c r="I22" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D23" s="27">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="3">
+        <v>50</v>
+      </c>
+      <c r="G23" s="27">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="24"/>
+      <c r="I23" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="20">
+        <f>SUM(I16:I23)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="59"/>
+    </row>
+    <row r="26" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+      <c r="C29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="62"/>
+      <c r="F29" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="28">
+        <v>100</v>
+      </c>
+      <c r="D30" s="61">
+        <v>10000</v>
+      </c>
+      <c r="E30" s="61"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="7">
+        <f>(F30*D30)+(G30*C30)</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="28">
+        <v>50</v>
+      </c>
+      <c r="D31" s="61">
+        <v>5000</v>
+      </c>
+      <c r="E31" s="61"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="7">
+        <f>(F31*D31)+(G31*C31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C32" s="28">
+        <v>20</v>
+      </c>
+      <c r="D32" s="61">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="61"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="7">
+        <f>(F32*D32)+(G32*C32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C33" s="28">
+        <v>10</v>
+      </c>
+      <c r="D33" s="61">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="61"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="7">
+        <f>(F33*D33)+(G33*C33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C34" s="29">
+        <v>5</v>
+      </c>
+      <c r="D34" s="60">
+        <v>500</v>
+      </c>
+      <c r="E34" s="60"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="7">
+        <f>(F34*D34)+(G34*C34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="18">
+        <f>SUM(H30:H34)</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="15"/>
+    </row>
+    <row r="36" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="30"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="70"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="66"/>
+      <c r="J47" s="67"/>
+    </row>
+    <row r="48" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="70"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="67"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="65"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="66"/>
+      <c r="J49" s="67"/>
+    </row>
+    <row r="50" spans="2:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="27">
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="B49:J49"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="C6:F6"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.39" right="0.44" top="0.57999999999999996" bottom="0.64" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000Informação Interna</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/seg-etv/template pedido de fundos.xlsx
+++ b/seg-etv/template pedido de fundos.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1040103\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1040103\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08FEFCF8-AB3D-4DD7-9B64-0BCB0DB570FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E3CD7B-F4F0-428F-A5F2-07162A8AE89C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$51</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Moedas</t>
   </si>
@@ -42,16 +47,10 @@
     <t>Cliente:</t>
   </si>
   <si>
-    <t>NIB:</t>
-  </si>
-  <si>
     <t>Data Pedido:</t>
   </si>
   <si>
     <t>Data Entrega:</t>
-  </si>
-  <si>
-    <t>(nome da pessoa que autoriza o respectivo debito)</t>
   </si>
   <si>
     <t xml:space="preserve">Nota: As moedas só deverão ser solicitadas em Mangas ou Saquetas indicando as quantidades pretendidas, nas </t>
@@ -145,14 +144,29 @@
   </si>
   <si>
     <t>CTT - Correios de Portugal, SA -Loja ……….</t>
+  </si>
+  <si>
+    <t>(conforme forma de obrigar a conta bancaria)</t>
+  </si>
+  <si>
+    <t>Local da entrega:</t>
+  </si>
+  <si>
+    <t>NIB</t>
+  </si>
+  <si>
+    <t>(assinatura  que autoriza o respectivo debito)</t>
+  </si>
+  <si>
+    <t>(assintura  que autoriza o respectivo debito)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -238,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -429,11 +443,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -499,13 +522,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -516,11 +539,17 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -566,6 +595,21 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -580,37 +624,29 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -949,11 +985,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:XFC63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+      <selection activeCell="B4" sqref="B4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -966,41 +1005,42 @@
     <col min="6" max="7" width="10.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="0" style="1" hidden="1"/>
+    <col min="10" max="10" width="3.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16383" width="0" style="1" hidden="1"/>
+    <col min="16384" max="16384" width="2" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J3" s="38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43"/>
+      <c r="B4" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="45"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="C6" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
       <c r="G6" s="30"/>
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
@@ -1008,13 +1048,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+        <v>37</v>
+      </c>
+      <c r="C7" s="74"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
       <c r="F7" s="36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7" s="30"/>
       <c r="H7" s="23"/>
@@ -1023,16 +1063,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
+        <v>30</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
       <c r="G8" s="33"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
@@ -1040,22 +1080,25 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
+        <v>30</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
       <c r="G9" s="33"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1067,78 +1110,78 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
+      <c r="B12" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="49"/>
     </row>
     <row r="15" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="H15" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1342,15 +1385,15 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
       <c r="I24" s="20">
         <f>SUM(I16:I23)</f>
         <v>0</v>
@@ -1359,60 +1402,60 @@
     </row>
     <row r="25" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="59"/>
+      <c r="B25" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="68"/>
     </row>
     <row r="26" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="58"/>
+      <c r="B26" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="67"/>
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="47"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="49"/>
       <c r="I28" s="11"/>
       <c r="J28" s="10"/>
     </row>
     <row r="29" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="C29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="62"/>
+        <v>15</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="40"/>
       <c r="F29" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -1421,10 +1464,10 @@
       <c r="C30" s="28">
         <v>100</v>
       </c>
-      <c r="D30" s="61">
+      <c r="D30" s="39">
         <v>10000</v>
       </c>
-      <c r="E30" s="61"/>
+      <c r="E30" s="39"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
       <c r="H30" s="7">
@@ -1437,10 +1480,10 @@
       <c r="C31" s="28">
         <v>50</v>
       </c>
-      <c r="D31" s="61">
+      <c r="D31" s="39">
         <v>5000</v>
       </c>
-      <c r="E31" s="61"/>
+      <c r="E31" s="39"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
       <c r="H31" s="7">
@@ -1452,10 +1495,10 @@
       <c r="C32" s="28">
         <v>20</v>
       </c>
-      <c r="D32" s="61">
+      <c r="D32" s="39">
         <v>2000</v>
       </c>
-      <c r="E32" s="61"/>
+      <c r="E32" s="39"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
       <c r="H32" s="7">
@@ -1463,14 +1506,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C33" s="28">
         <v>10</v>
       </c>
-      <c r="D33" s="61">
+      <c r="D33" s="39">
         <v>1000</v>
       </c>
-      <c r="E33" s="61"/>
+      <c r="E33" s="39"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
       <c r="H33" s="7">
@@ -1478,14 +1521,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C34" s="29">
         <v>5</v>
       </c>
-      <c r="D34" s="60">
+      <c r="D34" s="69">
         <v>500</v>
       </c>
-      <c r="E34" s="60"/>
+      <c r="E34" s="69"/>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
       <c r="H34" s="7">
@@ -1493,70 +1536,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="14"/>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
       <c r="H35" s="18">
         <f>SUM(H30:H34)</f>
         <v>0</v>
       </c>
       <c r="I35" s="15"/>
     </row>
-    <row r="36" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="16"/>
-      <c r="C36" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
+      <c r="C36" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
       <c r="I36" s="17"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
-      <c r="C37" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
+      <c r="C37" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="37" t="s">
-        <v>27</v>
-      </c>
       <c r="C41" s="37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D41" s="37"/>
       <c r="E41" s="37"/>
@@ -1564,9 +1607,9 @@
       <c r="G41" s="37"/>
       <c r="H41" s="37"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
@@ -1575,23 +1618,23 @@
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
+        <v>32</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
       <c r="I44" s="31"/>
       <c r="J44" s="30"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -1599,50 +1642,63 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="70"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="66"/>
-      <c r="J47" s="67"/>
-    </row>
-    <row r="48" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="70"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="66"/>
-      <c r="H48" s="66"/>
-      <c r="I48" s="66"/>
-      <c r="J48" s="67"/>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C46" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+    </row>
+    <row r="47" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="73"/>
+      <c r="J47" s="73"/>
+    </row>
+    <row r="48" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="K48" s="5"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="65"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="66"/>
-      <c r="I49" s="66"/>
-      <c r="J49" s="67"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="58"/>
     </row>
     <row r="50" spans="2:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="2:10" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="2:10" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="2:10" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="2:10" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="2:10" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="2:10" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="2:10" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:10" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="2:10" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="2:10" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:10" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="2:10" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="C44:H44"/>
+  <mergeCells count="28">
     <mergeCell ref="B49:J49"/>
     <mergeCell ref="B11:J11"/>
     <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B47:J47"/>
-    <mergeCell ref="B48:J48"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="C37:H37"/>
@@ -1653,10 +1709,9 @@
     <mergeCell ref="B26:I26"/>
     <mergeCell ref="B25:J25"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="H47:J47"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="B24:H24"/>
     <mergeCell ref="B14:I14"/>
@@ -1664,12 +1719,199 @@
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="B13:J13"/>
     <mergeCell ref="C6:F6"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C7:E7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.39" right="0.44" top="0.57999999999999996" bottom="0.64" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000Informação Interna</oddFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Acto CTT Book"&amp;10&amp;K000000Informação Interna</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010058C4AB01D125B7438D51BB77B7EAC9D0" ma:contentTypeVersion="2" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="be650fbde53408b9ef0d1106e2e62299">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="807bf0e7-9afb-4ac4-853d-702adb26983b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4982d8c5151d6c46d603d57a379005b5" ns3:_="">
+    <xsd:import namespace="807bf0e7-9afb-4ac4-853d-702adb26983b"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="807bf0e7-9afb-4ac4-853d-702adb26983b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3477F91-4139-4A35-998F-37D02038B966}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95A07647-CE73-420E-B517-B0514A62433E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="807bf0e7-9afb-4ac4-853d-702adb26983b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845D3F5B-E02E-4696-8143-DE519E03F0E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/seg-etv/template pedido de fundos.xlsx
+++ b/seg-etv/template pedido de fundos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1040103\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E3CD7B-F4F0-428F-A5F2-07162A8AE89C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29867854-5C54-4402-8B06-194686A71251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Moedas</t>
   </si>
@@ -146,9 +146,6 @@
     <t>CTT - Correios de Portugal, SA -Loja ……….</t>
   </si>
   <si>
-    <t>(conforme forma de obrigar a conta bancaria)</t>
-  </si>
-  <si>
     <t>Local da entrega:</t>
   </si>
   <si>
@@ -158,7 +155,7 @@
     <t>(assinatura  que autoriza o respectivo debito)</t>
   </si>
   <si>
-    <t>(assintura  que autoriza o respectivo debito)</t>
+    <t>(conforme forma de obrigar a conta bancária)</t>
   </si>
 </sst>
 </file>
@@ -456,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -539,72 +536,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -616,6 +565,18 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -624,6 +585,14 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -640,11 +609,47 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1018,45 +1023,45 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="45"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="76"/>
       <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="72"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="30"/>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" s="21"/>
@@ -1068,11 +1073,11 @@
       <c r="C8" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="33"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
@@ -1085,11 +1090,11 @@
       <c r="C9" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="33"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
@@ -1097,7 +1102,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1110,53 +1115,53 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54"/>
     </row>
     <row r="15" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -1385,15 +1390,15 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
       <c r="I24" s="20">
         <f>SUM(I16:I23)</f>
         <v>0</v>
@@ -1402,41 +1407,41 @@
     </row>
     <row r="25" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="68"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="58"/>
     </row>
     <row r="26" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="67"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="57"/>
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="49"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="54"/>
       <c r="I28" s="11"/>
       <c r="J28" s="10"/>
     </row>
@@ -1444,10 +1449,10 @@
       <c r="C29" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="D29" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="40"/>
+      <c r="E29" s="71"/>
       <c r="F29" s="9" t="s">
         <v>12</v>
       </c>
@@ -1464,10 +1469,10 @@
       <c r="C30" s="28">
         <v>100</v>
       </c>
-      <c r="D30" s="39">
+      <c r="D30" s="46">
         <v>10000</v>
       </c>
-      <c r="E30" s="39"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
       <c r="H30" s="7">
@@ -1480,10 +1485,10 @@
       <c r="C31" s="28">
         <v>50</v>
       </c>
-      <c r="D31" s="39">
+      <c r="D31" s="46">
         <v>5000</v>
       </c>
-      <c r="E31" s="39"/>
+      <c r="E31" s="46"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
       <c r="H31" s="7">
@@ -1495,10 +1500,10 @@
       <c r="C32" s="28">
         <v>20</v>
       </c>
-      <c r="D32" s="39">
+      <c r="D32" s="46">
         <v>2000</v>
       </c>
-      <c r="E32" s="39"/>
+      <c r="E32" s="46"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
       <c r="H32" s="7">
@@ -1510,10 +1515,10 @@
       <c r="C33" s="28">
         <v>10</v>
       </c>
-      <c r="D33" s="39">
+      <c r="D33" s="46">
         <v>1000</v>
       </c>
-      <c r="E33" s="39"/>
+      <c r="E33" s="46"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
       <c r="H33" s="7">
@@ -1525,10 +1530,10 @@
       <c r="C34" s="29">
         <v>5</v>
       </c>
-      <c r="D34" s="69">
+      <c r="D34" s="59">
         <v>500</v>
       </c>
-      <c r="E34" s="69"/>
+      <c r="E34" s="59"/>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
       <c r="H34" s="7">
@@ -1539,13 +1544,13 @@
     <row r="35" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="14"/>
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
       <c r="H35" s="18">
         <f>SUM(H30:H34)</f>
         <v>0</v>
@@ -1555,43 +1560,43 @@
     <row r="36" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="16"/>
-      <c r="C36" s="61" t="s">
+      <c r="C36" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
       <c r="I36" s="17"/>
       <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="64"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -1623,14 +1628,14 @@
       <c r="B44" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
+      <c r="C44" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
       <c r="I44" s="31"/>
       <c r="J44" s="30"/>
     </row>
@@ -1643,42 +1648,42 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C46" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
+      <c r="C46" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
     </row>
     <row r="47" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="73"/>
-      <c r="J47" s="73"/>
+      <c r="B47" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
     </row>
     <row r="48" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="K48" s="5"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="56"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="58"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="41"/>
     </row>
     <row r="50" spans="2:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25"/>
@@ -1696,6 +1701,18 @@
     <row r="63" spans="2:10" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="C6:I6"/>
     <mergeCell ref="B49:J49"/>
     <mergeCell ref="B11:J11"/>
     <mergeCell ref="B12:J12"/>
@@ -1712,18 +1729,6 @@
     <mergeCell ref="C46:H46"/>
     <mergeCell ref="B47:G47"/>
     <mergeCell ref="H47:J47"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C7:E7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.39" right="0.44" top="0.57999999999999996" bottom="0.64" header="0.5" footer="0.5"/>
@@ -1744,6 +1749,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010058C4AB01D125B7438D51BB77B7EAC9D0" ma:contentTypeVersion="2" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="be650fbde53408b9ef0d1106e2e62299">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="807bf0e7-9afb-4ac4-853d-702adb26983b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4982d8c5151d6c46d603d57a379005b5" ns3:_="">
     <xsd:import namespace="807bf0e7-9afb-4ac4-853d-702adb26983b"/>
@@ -1875,12 +1886,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3477F91-4139-4A35-998F-37D02038B966}">
   <ds:schemaRefs>
@@ -1890,6 +1895,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845D3F5B-E02E-4696-8143-DE519E03F0E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95A07647-CE73-420E-B517-B0514A62433E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1905,13 +1919,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845D3F5B-E02E-4696-8143-DE519E03F0E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/seg-etv/template pedido de fundos.xlsx
+++ b/seg-etv/template pedido de fundos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1040103\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://correios.sharepoint.com/sites/CTT-OPBOLP/Documentos Partilhados/ETV/TEMPLATES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29867854-5C54-4402-8B06-194686A71251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03531FEB-6F7B-4AE6-9B6F-7C90C2B19941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32130" yWindow="3120" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Moedas</t>
   </si>
@@ -131,9 +131,6 @@
     <t>(indicar NIB a debitar pela entrega de Fundos)</t>
   </si>
   <si>
-    <t>00-00-0000</t>
-  </si>
-  <si>
     <t>Serve o presente para solicitar a entrega de fundos abaixo mencionados:</t>
   </si>
   <si>
@@ -143,19 +140,21 @@
     <t>.</t>
   </si>
   <si>
-    <t>CTT - Correios de Portugal, SA -Loja ……….</t>
-  </si>
-  <si>
-    <t>Local da entrega:</t>
-  </si>
-  <si>
     <t>NIB</t>
   </si>
   <si>
-    <t>(assinatura  que autoriza o respectivo debito)</t>
-  </si>
-  <si>
     <t>(conforme forma de obrigar a conta bancária)</t>
+  </si>
+  <si>
+    <t>CTT - Correios de Portugal, SA - Loja XXXXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local da entrega: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTT - Correios de Portugal, S.A.  - Capital Social 75.000.000,00 € - NIPC 500 077 568
+Sede Social: Edifício CTT, Av. D. João II, 13 - 1999-001 LISBOA - PORTUGAL
+ctt.pt </t>
   </si>
 </sst>
 </file>
@@ -218,12 +217,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
       <sz val="8"/>
       <name val="Arial"/>
@@ -231,6 +224,11 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -453,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -525,58 +523,109 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -585,19 +634,11 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -607,50 +648,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -670,8 +667,61 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>170815</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDFF58C1-DFA4-CF57-B370-1DA7F77E541C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5658485" cy="775335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -994,23 +1044,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:XFC63"/>
+  <dimension ref="A1:XFC51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:J4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" style="1" customWidth="1"/>
     <col min="6" max="7" width="10.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="3.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3.21875" style="1" customWidth="1"/>
     <col min="11" max="16383" width="0" style="1" hidden="1"/>
     <col min="16384" max="16384" width="2" style="1" hidden="1" customWidth="1"/>
   </cols>
@@ -1018,48 +1068,48 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J3" s="38" t="s">
-        <v>33</v>
+      <c r="J3" s="37" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="68"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="76"/>
+      <c r="C6" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="58"/>
       <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="36" t="s">
+      <c r="B7" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="35" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="23"/>
@@ -1067,34 +1117,30 @@
       <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="69" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="33"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
       <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="69" t="s">
+      <c r="C9" s="32"/>
+      <c r="D9" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="33"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
@@ -1102,7 +1148,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1115,53 +1161,53 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
+      <c r="B12" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
     </row>
     <row r="15" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -1390,15 +1436,15 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
       <c r="I24" s="20">
         <f>SUM(I16:I23)</f>
         <v>0</v>
@@ -1407,41 +1453,41 @@
     </row>
     <row r="25" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="58"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="71"/>
     </row>
     <row r="26" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="57"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="70"/>
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="54"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="51"/>
       <c r="I28" s="11"/>
       <c r="J28" s="10"/>
     </row>
@@ -1449,10 +1495,10 @@
       <c r="C29" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="71" t="s">
+      <c r="D29" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="71"/>
+      <c r="E29" s="42"/>
       <c r="F29" s="9" t="s">
         <v>12</v>
       </c>
@@ -1469,10 +1515,10 @@
       <c r="C30" s="28">
         <v>100</v>
       </c>
-      <c r="D30" s="46">
+      <c r="D30" s="41">
         <v>10000</v>
       </c>
-      <c r="E30" s="46"/>
+      <c r="E30" s="41"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
       <c r="H30" s="7">
@@ -1485,10 +1531,10 @@
       <c r="C31" s="28">
         <v>50</v>
       </c>
-      <c r="D31" s="46">
+      <c r="D31" s="41">
         <v>5000</v>
       </c>
-      <c r="E31" s="46"/>
+      <c r="E31" s="41"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
       <c r="H31" s="7">
@@ -1500,10 +1546,10 @@
       <c r="C32" s="28">
         <v>20</v>
       </c>
-      <c r="D32" s="46">
+      <c r="D32" s="41">
         <v>2000</v>
       </c>
-      <c r="E32" s="46"/>
+      <c r="E32" s="41"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
       <c r="H32" s="7">
@@ -1515,10 +1561,10 @@
       <c r="C33" s="28">
         <v>10</v>
       </c>
-      <c r="D33" s="46">
+      <c r="D33" s="41">
         <v>1000</v>
       </c>
-      <c r="E33" s="46"/>
+      <c r="E33" s="41"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
       <c r="H33" s="7">
@@ -1530,10 +1576,10 @@
       <c r="C34" s="29">
         <v>5</v>
       </c>
-      <c r="D34" s="59">
+      <c r="D34" s="72">
         <v>500</v>
       </c>
-      <c r="E34" s="59"/>
+      <c r="E34" s="72"/>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
       <c r="H34" s="7">
@@ -1544,13 +1590,13 @@
     <row r="35" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="14"/>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
       <c r="H35" s="18">
         <f>SUM(H30:H34)</f>
         <v>0</v>
@@ -1560,82 +1606,80 @@
     <row r="36" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="16"/>
-      <c r="C36" s="47" t="s">
+      <c r="C36" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
       <c r="I36" s="17"/>
       <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
+        <v>31</v>
+      </c>
+      <c r="C44" s="43"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
       <c r="I44" s="31"/>
       <c r="J44" s="30"/>
     </row>
@@ -1648,71 +1692,47 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C46" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
     </row>
     <row r="47" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="63"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
-    </row>
-    <row r="48" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+    </row>
+    <row r="48" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="K48" s="5"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="39"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="41"/>
-    </row>
-    <row r="50" spans="2:10" ht="13.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="2:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="61"/>
+    </row>
+    <row r="50" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="2:10" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="2:10" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="2:10" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="2:10" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="2:10" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="2:10" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="2:10" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="2:10" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="2:10" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="2:10" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="2:10" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="2:10" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="C6:I6"/>
+  <mergeCells count="27">
     <mergeCell ref="B49:J49"/>
     <mergeCell ref="B11:J11"/>
     <mergeCell ref="B12:J12"/>
@@ -1729,17 +1749,33 @@
     <mergeCell ref="C46:H46"/>
     <mergeCell ref="B47:G47"/>
     <mergeCell ref="H47:J47"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="C6:I6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.39" right="0.44" top="0.57999999999999996" bottom="0.64" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C&amp;1#&amp;"Acto CTT Book"&amp;10&amp;K000000Informação Interna</oddFooter>
-  </headerFooter>
+  <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1748,24 +1784,27 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010058C4AB01D125B7438D51BB77B7EAC9D0" ma:contentTypeVersion="2" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="be650fbde53408b9ef0d1106e2e62299">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="807bf0e7-9afb-4ac4-853d-702adb26983b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4982d8c5151d6c46d603d57a379005b5" ns3:_="">
-    <xsd:import namespace="807bf0e7-9afb-4ac4-853d-702adb26983b"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D0E89D0E141DFC429AE15F48EA6A118E" ma:contentTypeVersion="10" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="5d0f05bd64e85551106d3629ed73048a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="048dcb6f-c9d1-4bed-8f7e-f8357b918062" xmlns:ns3="3ddaa484-9701-45f3-b49d-29a8735eaeb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ad21ea417c93ecbd8ab20e24cc42117c" ns2:_="" ns3:_="">
+    <xsd:import namespace="048dcb6f-c9d1-4bed-8f7e-f8357b918062"/>
+    <xsd:import namespace="3ddaa484-9701-45f3-b49d-29a8735eaeb5"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1773,7 +1812,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="807bf0e7-9afb-4ac4-853d-702adb26983b" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="048dcb6f-c9d1-4bed-8f7e-f8357b918062" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -1784,6 +1823,68 @@
     <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="15" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3ddaa484-9701-45f3-b49d-29a8735eaeb5" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Partilhado Com" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Detalhes de Partilhado Com" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1887,14 +1988,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3477F91-4139-4A35-998F-37D02038B966}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845D3F5B-E02E-4696-8143-DE519E03F0E8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1903,20 +1996,14 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95A07647-CE73-420E-B517-B0514A62433E}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3477F91-4139-4A35-998F-37D02038B966}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="807bf0e7-9afb-4ac4-853d-702adb26983b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD2FF83C-A6E3-4C60-A5B0-9473A348BC23}"/>
 </file>